--- a/schedule_green_line.xlsx
+++ b/schedule_green_line.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e6f4f7f86bcef2/Desktop/School/1140/1140/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\School\1140\1140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="14_{E0A3E9BE-1B89-4FF9-94A4-82D097F4FB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5CCBDA-7851-487C-BCDB-8B5861FDA7D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3442CA-3B78-4E95-AB19-C7D2478C733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="1150" windowWidth="28800" windowHeight="15460" xr2:uid="{473B4302-9923-4D0B-BCB4-5FD47821483A}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{473B4302-9923-4D0B-BCB4-5FD47821483A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,16 +50,16 @@
     <t>Stopping At</t>
   </si>
   <si>
-    <t>EDGEBROOK</t>
-  </si>
-  <si>
-    <t>DORMONT, GLENBURY</t>
-  </si>
-  <si>
-    <t>MT LEBANON, POPLAR</t>
-  </si>
-  <si>
-    <t>CASTLE SHANNON</t>
+    <t>C9: EDGEBROOK</t>
+  </si>
+  <si>
+    <t>P96: CASTLE SHANNON</t>
+  </si>
+  <si>
+    <t>L73: DORMONT, K65: GLENBURY</t>
+  </si>
+  <si>
+    <t>N77: MT LEBANON, O88: POPLAR</t>
   </si>
 </sst>
 </file>
@@ -421,18 +421,18 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -446,47 +446,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="B2" s="1">
-        <v>0.30555555555555552</v>
+        <v>0.30624999999999997</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
   </sheetData>

--- a/schedule_green_line.xlsx
+++ b/schedule_green_line.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\School\1140\1140\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\School\1140\1140_iteration4\1140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3442CA-3B78-4E95-AB19-C7D2478C733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BBCCCE-5CC4-4C30-905D-ED9DDFC6EBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{473B4302-9923-4D0B-BCB4-5FD47821483A}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{473B4302-9923-4D0B-BCB4-5FD47821483A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,10 @@
     <t>P96: CASTLE SHANNON</t>
   </si>
   <si>
-    <t>L73: DORMONT, K65: GLENBURY</t>
-  </si>
-  <si>
     <t>N77: MT LEBANON, O88: POPLAR</t>
+  </si>
+  <si>
+    <t>K65: GLENBURY, L73: DORMONT</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
